--- a/Phd Plan.xlsx
+++ b/Phd Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A06D3965-622B-9A4C-A9E3-8E2013AB2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{DB8FAD5E-4765-FE4D-A29C-74B7730C8567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -765,21 +765,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FF222222"/>
-      <name val="Corbel"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF222222"/>
       <name val="Corbel"/>
@@ -808,12 +793,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Corbel (Headings)"/>
-    </font>
-    <font>
       <sz val="26"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
@@ -826,13 +805,6 @@
       <color theme="7"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Corbel"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -870,6 +842,41 @@
       <color theme="7"/>
       <name val="Corbel"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF222222"/>
+      <name val="Corbel"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Corbel (Headings)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -1226,230 +1233,230 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="8" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="6" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="8" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="6" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1853,13 +1860,13 @@
   </sheetPr>
   <dimension ref="A1:SB44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" style="54" customWidth="1"/>
     <col min="2" max="2" width="118" style="8" customWidth="1"/>
     <col min="3" max="3" width="119.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="82.1640625" style="11" customWidth="1"/>
@@ -1873,117 +1880,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:496" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
     </row>
     <row r="2" spans="1:496" s="6" customFormat="1" ht="37" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="61">
         <v>36</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="76" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82" t="s">
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="82" t="s">
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="82" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="GT2" s="7"/>
       <c r="GU2" s="7"/>
       <c r="GV2" s="7"/>
@@ -2280,523 +2287,523 @@
       <c r="SA2" s="7"/>
       <c r="SB2" s="7"/>
     </row>
-    <row r="3" spans="1:496" s="67" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:496" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="66"/>
-      <c r="DC3" s="66"/>
-      <c r="DD3" s="66"/>
-      <c r="DE3" s="66"/>
-      <c r="DF3" s="66"/>
-      <c r="DG3" s="66"/>
-      <c r="DH3" s="66"/>
-      <c r="DI3" s="66"/>
-      <c r="DJ3" s="66"/>
-      <c r="DK3" s="66"/>
-      <c r="DL3" s="66"/>
-      <c r="DM3" s="66"/>
-      <c r="DN3" s="66"/>
-      <c r="DO3" s="66"/>
-      <c r="DP3" s="66"/>
-      <c r="DQ3" s="66"/>
-      <c r="DR3" s="66"/>
-      <c r="DS3" s="66"/>
-      <c r="DT3" s="66"/>
-      <c r="DU3" s="66"/>
-      <c r="DV3" s="66"/>
-      <c r="DW3" s="66"/>
-      <c r="DX3" s="66"/>
-      <c r="DY3" s="66"/>
-      <c r="DZ3" s="66"/>
-      <c r="EA3" s="66"/>
-      <c r="EB3" s="66"/>
-      <c r="EC3" s="66"/>
-      <c r="ED3" s="66"/>
-      <c r="EE3" s="66"/>
-      <c r="EF3" s="66"/>
-      <c r="EG3" s="66"/>
-      <c r="EH3" s="66"/>
-      <c r="EI3" s="66"/>
-      <c r="EJ3" s="66"/>
-      <c r="EK3" s="66"/>
-      <c r="EL3" s="66"/>
-      <c r="EM3" s="66"/>
-      <c r="EN3" s="66"/>
-      <c r="EO3" s="66"/>
-      <c r="EP3" s="66"/>
-      <c r="EQ3" s="66"/>
-      <c r="ER3" s="66"/>
-      <c r="ES3" s="66"/>
-      <c r="ET3" s="66"/>
-      <c r="EU3" s="66"/>
-      <c r="EV3" s="66"/>
-      <c r="EW3" s="66"/>
-      <c r="EX3" s="66"/>
-      <c r="EY3" s="66"/>
-      <c r="EZ3" s="66"/>
-      <c r="FA3" s="66"/>
-      <c r="FB3" s="66"/>
-      <c r="FC3" s="66"/>
-      <c r="FD3" s="66"/>
-      <c r="FE3" s="66"/>
-      <c r="FF3" s="66"/>
-      <c r="FG3" s="66"/>
-      <c r="FH3" s="66"/>
-      <c r="FI3" s="66"/>
-      <c r="FJ3" s="66"/>
-      <c r="FK3" s="66"/>
-      <c r="FL3" s="66"/>
-      <c r="FM3" s="66"/>
-      <c r="FN3" s="66"/>
-      <c r="FO3" s="66"/>
-      <c r="FP3" s="66"/>
-      <c r="FQ3" s="66"/>
-      <c r="FR3" s="66"/>
-      <c r="FS3" s="66"/>
-      <c r="FT3" s="66"/>
-      <c r="FU3" s="66"/>
-      <c r="FV3" s="66"/>
-      <c r="FW3" s="66"/>
-      <c r="FX3" s="66"/>
-      <c r="FY3" s="66"/>
-      <c r="FZ3" s="66"/>
-      <c r="GA3" s="66"/>
-      <c r="GB3" s="66"/>
-      <c r="GC3" s="66"/>
-      <c r="GD3" s="66"/>
-      <c r="GE3" s="66"/>
-      <c r="GF3" s="66"/>
-      <c r="GG3" s="66"/>
-      <c r="GH3" s="66"/>
-      <c r="GI3" s="66"/>
-      <c r="GJ3" s="66"/>
-      <c r="GK3" s="66"/>
-      <c r="GL3" s="66"/>
-      <c r="GM3" s="66"/>
-      <c r="GN3" s="66"/>
-      <c r="GO3" s="66"/>
-      <c r="GP3" s="66"/>
-      <c r="GQ3" s="66"/>
-      <c r="GR3" s="66"/>
-      <c r="GS3" s="66"/>
-      <c r="GT3" s="66"/>
-      <c r="GU3" s="66"/>
-      <c r="GV3" s="66"/>
-      <c r="GW3" s="66"/>
-      <c r="GX3" s="66"/>
-      <c r="GY3" s="66"/>
-      <c r="GZ3" s="66"/>
-      <c r="HA3" s="66"/>
-      <c r="HB3" s="66"/>
-      <c r="HC3" s="66"/>
-      <c r="HD3" s="66"/>
-      <c r="HE3" s="66"/>
-      <c r="HF3" s="66"/>
-      <c r="HG3" s="66"/>
-      <c r="HH3" s="66"/>
-      <c r="HI3" s="66"/>
-      <c r="HJ3" s="66"/>
-      <c r="HK3" s="66"/>
-      <c r="HL3" s="66"/>
-      <c r="HM3" s="66"/>
-      <c r="HN3" s="66"/>
-      <c r="HO3" s="66"/>
-      <c r="HP3" s="66"/>
-      <c r="HQ3" s="66"/>
-      <c r="HR3" s="66"/>
-      <c r="HS3" s="66"/>
-      <c r="HT3" s="66"/>
-      <c r="HU3" s="66"/>
-      <c r="HV3" s="66"/>
-      <c r="HW3" s="66"/>
-      <c r="HX3" s="66"/>
-      <c r="HY3" s="66"/>
-      <c r="HZ3" s="66"/>
-      <c r="IA3" s="66"/>
-      <c r="IB3" s="66"/>
-      <c r="IC3" s="66"/>
-      <c r="ID3" s="66"/>
-      <c r="IE3" s="66"/>
-      <c r="IF3" s="66"/>
-      <c r="IG3" s="66"/>
-      <c r="IH3" s="66"/>
-      <c r="II3" s="66"/>
-      <c r="IJ3" s="66"/>
-      <c r="IK3" s="66"/>
-      <c r="IL3" s="66"/>
-      <c r="IM3" s="66"/>
-      <c r="IN3" s="66"/>
-      <c r="IO3" s="66"/>
-      <c r="IP3" s="66"/>
-      <c r="IQ3" s="66"/>
-      <c r="IR3" s="66"/>
-      <c r="IS3" s="66"/>
-      <c r="IT3" s="66"/>
-      <c r="IU3" s="66"/>
-      <c r="IV3" s="66"/>
-      <c r="IW3" s="66"/>
-      <c r="IX3" s="66"/>
-      <c r="IY3" s="66"/>
-      <c r="IZ3" s="66"/>
-      <c r="JA3" s="66"/>
-      <c r="JB3" s="66"/>
-      <c r="JC3" s="66"/>
-      <c r="JD3" s="66"/>
-      <c r="JE3" s="66"/>
-      <c r="JF3" s="66"/>
-      <c r="JG3" s="66"/>
-      <c r="JH3" s="66"/>
-      <c r="JI3" s="66"/>
-      <c r="JJ3" s="66"/>
-      <c r="JK3" s="66"/>
-      <c r="JL3" s="66"/>
-      <c r="JM3" s="66"/>
-      <c r="JN3" s="66"/>
-      <c r="JO3" s="66"/>
-      <c r="JP3" s="66"/>
-      <c r="JQ3" s="66"/>
-      <c r="JR3" s="66"/>
-      <c r="JS3" s="66"/>
-      <c r="JT3" s="66"/>
-      <c r="JU3" s="66"/>
-      <c r="JV3" s="66"/>
-      <c r="JW3" s="66"/>
-      <c r="JX3" s="66"/>
-      <c r="JY3" s="66"/>
-      <c r="JZ3" s="66"/>
-      <c r="KA3" s="66"/>
-      <c r="KB3" s="66"/>
-      <c r="KC3" s="66"/>
-      <c r="KD3" s="66"/>
-      <c r="KE3" s="66"/>
-      <c r="KF3" s="66"/>
-      <c r="KG3" s="66"/>
-      <c r="KH3" s="66"/>
-      <c r="KI3" s="66"/>
-      <c r="KJ3" s="66"/>
-      <c r="KK3" s="66"/>
-      <c r="KL3" s="66"/>
-      <c r="KM3" s="66"/>
-      <c r="KN3" s="66"/>
-      <c r="KO3" s="66"/>
-      <c r="KP3" s="66"/>
-      <c r="KQ3" s="66"/>
-      <c r="KR3" s="66"/>
-      <c r="KS3" s="66"/>
-      <c r="KT3" s="66"/>
-      <c r="KU3" s="66"/>
-      <c r="KV3" s="66"/>
-      <c r="KW3" s="66"/>
-      <c r="KX3" s="66"/>
-      <c r="KY3" s="66"/>
-      <c r="KZ3" s="66"/>
-      <c r="LA3" s="66"/>
-      <c r="LB3" s="66"/>
-      <c r="LC3" s="66"/>
-      <c r="LD3" s="66"/>
-      <c r="LE3" s="66"/>
-      <c r="LF3" s="66"/>
-      <c r="LG3" s="66"/>
-      <c r="LH3" s="66"/>
-      <c r="LI3" s="66"/>
-      <c r="LJ3" s="66"/>
-      <c r="LK3" s="66"/>
-      <c r="LL3" s="66"/>
-      <c r="LM3" s="66"/>
-      <c r="LN3" s="66"/>
-      <c r="LO3" s="66"/>
-      <c r="LP3" s="66"/>
-      <c r="LQ3" s="66"/>
-      <c r="LR3" s="66"/>
-      <c r="LS3" s="66"/>
-      <c r="LT3" s="66"/>
-      <c r="LU3" s="66"/>
-      <c r="LV3" s="66"/>
-      <c r="LW3" s="66"/>
-      <c r="LX3" s="66"/>
-      <c r="LY3" s="66"/>
-      <c r="LZ3" s="66"/>
-      <c r="MA3" s="66"/>
-      <c r="MB3" s="66"/>
-      <c r="MC3" s="66"/>
-      <c r="MD3" s="66"/>
-      <c r="ME3" s="66"/>
-      <c r="MF3" s="66"/>
-      <c r="MG3" s="66"/>
-      <c r="MH3" s="66"/>
-      <c r="MI3" s="66"/>
-      <c r="MJ3" s="66"/>
-      <c r="MK3" s="66"/>
-      <c r="ML3" s="66"/>
-      <c r="MM3" s="66"/>
-      <c r="MN3" s="66"/>
-      <c r="MO3" s="66"/>
-      <c r="MP3" s="66"/>
-      <c r="MQ3" s="66"/>
-      <c r="MR3" s="66"/>
-      <c r="MS3" s="66"/>
-      <c r="MT3" s="66"/>
-      <c r="MU3" s="66"/>
-      <c r="MV3" s="66"/>
-      <c r="MW3" s="66"/>
-      <c r="MX3" s="66"/>
-      <c r="MY3" s="66"/>
-      <c r="MZ3" s="66"/>
-      <c r="NA3" s="66"/>
-      <c r="NB3" s="66"/>
-      <c r="NC3" s="66"/>
-      <c r="ND3" s="66"/>
-      <c r="NE3" s="66"/>
-      <c r="NF3" s="66"/>
-      <c r="NG3" s="66"/>
-      <c r="NH3" s="66"/>
-      <c r="NI3" s="66"/>
-      <c r="NJ3" s="66"/>
-      <c r="NK3" s="66"/>
-      <c r="NL3" s="66"/>
-      <c r="NM3" s="66"/>
-      <c r="NN3" s="66"/>
-      <c r="NO3" s="66"/>
-      <c r="NP3" s="66"/>
-      <c r="NQ3" s="66"/>
-      <c r="NR3" s="66"/>
-      <c r="NS3" s="66"/>
-      <c r="NT3" s="66"/>
-      <c r="NU3" s="66"/>
-      <c r="NV3" s="66"/>
-      <c r="NW3" s="66"/>
-      <c r="NX3" s="66"/>
-      <c r="NY3" s="66"/>
-      <c r="NZ3" s="66"/>
-      <c r="OA3" s="66"/>
-      <c r="OB3" s="66"/>
-      <c r="OC3" s="66"/>
-      <c r="OD3" s="66"/>
-      <c r="OE3" s="66"/>
-      <c r="OF3" s="66"/>
-      <c r="OG3" s="66"/>
-      <c r="OH3" s="66"/>
-      <c r="OI3" s="66"/>
-      <c r="OJ3" s="66"/>
-      <c r="OK3" s="66"/>
-      <c r="OL3" s="66"/>
-      <c r="OM3" s="66"/>
-      <c r="ON3" s="66"/>
-      <c r="OO3" s="66"/>
-      <c r="OP3" s="66"/>
-      <c r="OQ3" s="66"/>
-      <c r="OR3" s="66"/>
-      <c r="OS3" s="66"/>
-      <c r="OT3" s="66"/>
-      <c r="OU3" s="66"/>
-      <c r="OV3" s="66"/>
-      <c r="OW3" s="66"/>
-      <c r="OX3" s="66"/>
-      <c r="OY3" s="66"/>
-      <c r="OZ3" s="66"/>
-      <c r="PA3" s="66"/>
-      <c r="PB3" s="66"/>
-      <c r="PC3" s="66"/>
-      <c r="PD3" s="66"/>
-      <c r="PE3" s="66"/>
-      <c r="PF3" s="66"/>
-      <c r="PG3" s="66"/>
-      <c r="PH3" s="66"/>
-      <c r="PI3" s="66"/>
-      <c r="PJ3" s="66"/>
-      <c r="PK3" s="66"/>
-      <c r="PL3" s="66"/>
-      <c r="PM3" s="66"/>
-      <c r="PN3" s="66"/>
-      <c r="PO3" s="66"/>
-      <c r="PP3" s="66"/>
-      <c r="PQ3" s="66"/>
-      <c r="PR3" s="66"/>
-      <c r="PS3" s="66"/>
-      <c r="PT3" s="66"/>
-      <c r="PU3" s="66"/>
-      <c r="PV3" s="66"/>
-      <c r="PW3" s="66"/>
-      <c r="PX3" s="66"/>
-      <c r="PY3" s="66"/>
-      <c r="PZ3" s="66"/>
-      <c r="QA3" s="66"/>
-      <c r="QB3" s="66"/>
-      <c r="QC3" s="66"/>
-      <c r="QD3" s="66"/>
-      <c r="QE3" s="66"/>
-      <c r="QF3" s="66"/>
-      <c r="QG3" s="66"/>
-      <c r="QH3" s="66"/>
-      <c r="QI3" s="66"/>
-      <c r="QJ3" s="66"/>
-      <c r="QK3" s="66"/>
-      <c r="QL3" s="66"/>
-      <c r="QM3" s="66"/>
-      <c r="QN3" s="66"/>
-      <c r="QO3" s="66"/>
-      <c r="QP3" s="66"/>
-      <c r="QQ3" s="66"/>
-      <c r="QR3" s="66"/>
-      <c r="QS3" s="66"/>
-      <c r="QT3" s="66"/>
-      <c r="QU3" s="66"/>
-      <c r="QV3" s="66"/>
-      <c r="QW3" s="66"/>
-      <c r="QX3" s="66"/>
-      <c r="QY3" s="66"/>
-      <c r="QZ3" s="66"/>
-      <c r="RA3" s="66"/>
-      <c r="RB3" s="66"/>
-      <c r="RC3" s="66"/>
-      <c r="RD3" s="66"/>
-      <c r="RE3" s="66"/>
-      <c r="RF3" s="66"/>
-      <c r="RG3" s="66"/>
-      <c r="RH3" s="66"/>
-      <c r="RI3" s="66"/>
-      <c r="RJ3" s="66"/>
-      <c r="RK3" s="66"/>
-      <c r="RL3" s="66"/>
-      <c r="RM3" s="66"/>
-      <c r="RN3" s="66"/>
-      <c r="RO3" s="66"/>
-      <c r="RP3" s="66"/>
-      <c r="RQ3" s="66"/>
-      <c r="RR3" s="66"/>
-      <c r="RS3" s="66"/>
-      <c r="RT3" s="66"/>
-      <c r="RU3" s="66"/>
-      <c r="RV3" s="66"/>
-      <c r="RW3" s="66"/>
-      <c r="RX3" s="66"/>
-      <c r="RY3" s="66"/>
-      <c r="RZ3" s="66"/>
-      <c r="SA3" s="66"/>
-      <c r="SB3" s="66"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="55"/>
+      <c r="BW3" s="55"/>
+      <c r="BX3" s="55"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="55"/>
+      <c r="CB3" s="55"/>
+      <c r="CC3" s="55"/>
+      <c r="CD3" s="55"/>
+      <c r="CE3" s="55"/>
+      <c r="CF3" s="55"/>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="55"/>
+      <c r="CI3" s="55"/>
+      <c r="CJ3" s="55"/>
+      <c r="CK3" s="55"/>
+      <c r="CL3" s="55"/>
+      <c r="CM3" s="55"/>
+      <c r="CN3" s="55"/>
+      <c r="CO3" s="55"/>
+      <c r="CP3" s="55"/>
+      <c r="CQ3" s="55"/>
+      <c r="CR3" s="55"/>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="55"/>
+      <c r="CU3" s="55"/>
+      <c r="CV3" s="55"/>
+      <c r="CW3" s="55"/>
+      <c r="CX3" s="55"/>
+      <c r="CY3" s="55"/>
+      <c r="CZ3" s="55"/>
+      <c r="DA3" s="55"/>
+      <c r="DB3" s="55"/>
+      <c r="DC3" s="55"/>
+      <c r="DD3" s="55"/>
+      <c r="DE3" s="55"/>
+      <c r="DF3" s="55"/>
+      <c r="DG3" s="55"/>
+      <c r="DH3" s="55"/>
+      <c r="DI3" s="55"/>
+      <c r="DJ3" s="55"/>
+      <c r="DK3" s="55"/>
+      <c r="DL3" s="55"/>
+      <c r="DM3" s="55"/>
+      <c r="DN3" s="55"/>
+      <c r="DO3" s="55"/>
+      <c r="DP3" s="55"/>
+      <c r="DQ3" s="55"/>
+      <c r="DR3" s="55"/>
+      <c r="DS3" s="55"/>
+      <c r="DT3" s="55"/>
+      <c r="DU3" s="55"/>
+      <c r="DV3" s="55"/>
+      <c r="DW3" s="55"/>
+      <c r="DX3" s="55"/>
+      <c r="DY3" s="55"/>
+      <c r="DZ3" s="55"/>
+      <c r="EA3" s="55"/>
+      <c r="EB3" s="55"/>
+      <c r="EC3" s="55"/>
+      <c r="ED3" s="55"/>
+      <c r="EE3" s="55"/>
+      <c r="EF3" s="55"/>
+      <c r="EG3" s="55"/>
+      <c r="EH3" s="55"/>
+      <c r="EI3" s="55"/>
+      <c r="EJ3" s="55"/>
+      <c r="EK3" s="55"/>
+      <c r="EL3" s="55"/>
+      <c r="EM3" s="55"/>
+      <c r="EN3" s="55"/>
+      <c r="EO3" s="55"/>
+      <c r="EP3" s="55"/>
+      <c r="EQ3" s="55"/>
+      <c r="ER3" s="55"/>
+      <c r="ES3" s="55"/>
+      <c r="ET3" s="55"/>
+      <c r="EU3" s="55"/>
+      <c r="EV3" s="55"/>
+      <c r="EW3" s="55"/>
+      <c r="EX3" s="55"/>
+      <c r="EY3" s="55"/>
+      <c r="EZ3" s="55"/>
+      <c r="FA3" s="55"/>
+      <c r="FB3" s="55"/>
+      <c r="FC3" s="55"/>
+      <c r="FD3" s="55"/>
+      <c r="FE3" s="55"/>
+      <c r="FF3" s="55"/>
+      <c r="FG3" s="55"/>
+      <c r="FH3" s="55"/>
+      <c r="FI3" s="55"/>
+      <c r="FJ3" s="55"/>
+      <c r="FK3" s="55"/>
+      <c r="FL3" s="55"/>
+      <c r="FM3" s="55"/>
+      <c r="FN3" s="55"/>
+      <c r="FO3" s="55"/>
+      <c r="FP3" s="55"/>
+      <c r="FQ3" s="55"/>
+      <c r="FR3" s="55"/>
+      <c r="FS3" s="55"/>
+      <c r="FT3" s="55"/>
+      <c r="FU3" s="55"/>
+      <c r="FV3" s="55"/>
+      <c r="FW3" s="55"/>
+      <c r="FX3" s="55"/>
+      <c r="FY3" s="55"/>
+      <c r="FZ3" s="55"/>
+      <c r="GA3" s="55"/>
+      <c r="GB3" s="55"/>
+      <c r="GC3" s="55"/>
+      <c r="GD3" s="55"/>
+      <c r="GE3" s="55"/>
+      <c r="GF3" s="55"/>
+      <c r="GG3" s="55"/>
+      <c r="GH3" s="55"/>
+      <c r="GI3" s="55"/>
+      <c r="GJ3" s="55"/>
+      <c r="GK3" s="55"/>
+      <c r="GL3" s="55"/>
+      <c r="GM3" s="55"/>
+      <c r="GN3" s="55"/>
+      <c r="GO3" s="55"/>
+      <c r="GP3" s="55"/>
+      <c r="GQ3" s="55"/>
+      <c r="GR3" s="55"/>
+      <c r="GS3" s="55"/>
+      <c r="GT3" s="55"/>
+      <c r="GU3" s="55"/>
+      <c r="GV3" s="55"/>
+      <c r="GW3" s="55"/>
+      <c r="GX3" s="55"/>
+      <c r="GY3" s="55"/>
+      <c r="GZ3" s="55"/>
+      <c r="HA3" s="55"/>
+      <c r="HB3" s="55"/>
+      <c r="HC3" s="55"/>
+      <c r="HD3" s="55"/>
+      <c r="HE3" s="55"/>
+      <c r="HF3" s="55"/>
+      <c r="HG3" s="55"/>
+      <c r="HH3" s="55"/>
+      <c r="HI3" s="55"/>
+      <c r="HJ3" s="55"/>
+      <c r="HK3" s="55"/>
+      <c r="HL3" s="55"/>
+      <c r="HM3" s="55"/>
+      <c r="HN3" s="55"/>
+      <c r="HO3" s="55"/>
+      <c r="HP3" s="55"/>
+      <c r="HQ3" s="55"/>
+      <c r="HR3" s="55"/>
+      <c r="HS3" s="55"/>
+      <c r="HT3" s="55"/>
+      <c r="HU3" s="55"/>
+      <c r="HV3" s="55"/>
+      <c r="HW3" s="55"/>
+      <c r="HX3" s="55"/>
+      <c r="HY3" s="55"/>
+      <c r="HZ3" s="55"/>
+      <c r="IA3" s="55"/>
+      <c r="IB3" s="55"/>
+      <c r="IC3" s="55"/>
+      <c r="ID3" s="55"/>
+      <c r="IE3" s="55"/>
+      <c r="IF3" s="55"/>
+      <c r="IG3" s="55"/>
+      <c r="IH3" s="55"/>
+      <c r="II3" s="55"/>
+      <c r="IJ3" s="55"/>
+      <c r="IK3" s="55"/>
+      <c r="IL3" s="55"/>
+      <c r="IM3" s="55"/>
+      <c r="IN3" s="55"/>
+      <c r="IO3" s="55"/>
+      <c r="IP3" s="55"/>
+      <c r="IQ3" s="55"/>
+      <c r="IR3" s="55"/>
+      <c r="IS3" s="55"/>
+      <c r="IT3" s="55"/>
+      <c r="IU3" s="55"/>
+      <c r="IV3" s="55"/>
+      <c r="IW3" s="55"/>
+      <c r="IX3" s="55"/>
+      <c r="IY3" s="55"/>
+      <c r="IZ3" s="55"/>
+      <c r="JA3" s="55"/>
+      <c r="JB3" s="55"/>
+      <c r="JC3" s="55"/>
+      <c r="JD3" s="55"/>
+      <c r="JE3" s="55"/>
+      <c r="JF3" s="55"/>
+      <c r="JG3" s="55"/>
+      <c r="JH3" s="55"/>
+      <c r="JI3" s="55"/>
+      <c r="JJ3" s="55"/>
+      <c r="JK3" s="55"/>
+      <c r="JL3" s="55"/>
+      <c r="JM3" s="55"/>
+      <c r="JN3" s="55"/>
+      <c r="JO3" s="55"/>
+      <c r="JP3" s="55"/>
+      <c r="JQ3" s="55"/>
+      <c r="JR3" s="55"/>
+      <c r="JS3" s="55"/>
+      <c r="JT3" s="55"/>
+      <c r="JU3" s="55"/>
+      <c r="JV3" s="55"/>
+      <c r="JW3" s="55"/>
+      <c r="JX3" s="55"/>
+      <c r="JY3" s="55"/>
+      <c r="JZ3" s="55"/>
+      <c r="KA3" s="55"/>
+      <c r="KB3" s="55"/>
+      <c r="KC3" s="55"/>
+      <c r="KD3" s="55"/>
+      <c r="KE3" s="55"/>
+      <c r="KF3" s="55"/>
+      <c r="KG3" s="55"/>
+      <c r="KH3" s="55"/>
+      <c r="KI3" s="55"/>
+      <c r="KJ3" s="55"/>
+      <c r="KK3" s="55"/>
+      <c r="KL3" s="55"/>
+      <c r="KM3" s="55"/>
+      <c r="KN3" s="55"/>
+      <c r="KO3" s="55"/>
+      <c r="KP3" s="55"/>
+      <c r="KQ3" s="55"/>
+      <c r="KR3" s="55"/>
+      <c r="KS3" s="55"/>
+      <c r="KT3" s="55"/>
+      <c r="KU3" s="55"/>
+      <c r="KV3" s="55"/>
+      <c r="KW3" s="55"/>
+      <c r="KX3" s="55"/>
+      <c r="KY3" s="55"/>
+      <c r="KZ3" s="55"/>
+      <c r="LA3" s="55"/>
+      <c r="LB3" s="55"/>
+      <c r="LC3" s="55"/>
+      <c r="LD3" s="55"/>
+      <c r="LE3" s="55"/>
+      <c r="LF3" s="55"/>
+      <c r="LG3" s="55"/>
+      <c r="LH3" s="55"/>
+      <c r="LI3" s="55"/>
+      <c r="LJ3" s="55"/>
+      <c r="LK3" s="55"/>
+      <c r="LL3" s="55"/>
+      <c r="LM3" s="55"/>
+      <c r="LN3" s="55"/>
+      <c r="LO3" s="55"/>
+      <c r="LP3" s="55"/>
+      <c r="LQ3" s="55"/>
+      <c r="LR3" s="55"/>
+      <c r="LS3" s="55"/>
+      <c r="LT3" s="55"/>
+      <c r="LU3" s="55"/>
+      <c r="LV3" s="55"/>
+      <c r="LW3" s="55"/>
+      <c r="LX3" s="55"/>
+      <c r="LY3" s="55"/>
+      <c r="LZ3" s="55"/>
+      <c r="MA3" s="55"/>
+      <c r="MB3" s="55"/>
+      <c r="MC3" s="55"/>
+      <c r="MD3" s="55"/>
+      <c r="ME3" s="55"/>
+      <c r="MF3" s="55"/>
+      <c r="MG3" s="55"/>
+      <c r="MH3" s="55"/>
+      <c r="MI3" s="55"/>
+      <c r="MJ3" s="55"/>
+      <c r="MK3" s="55"/>
+      <c r="ML3" s="55"/>
+      <c r="MM3" s="55"/>
+      <c r="MN3" s="55"/>
+      <c r="MO3" s="55"/>
+      <c r="MP3" s="55"/>
+      <c r="MQ3" s="55"/>
+      <c r="MR3" s="55"/>
+      <c r="MS3" s="55"/>
+      <c r="MT3" s="55"/>
+      <c r="MU3" s="55"/>
+      <c r="MV3" s="55"/>
+      <c r="MW3" s="55"/>
+      <c r="MX3" s="55"/>
+      <c r="MY3" s="55"/>
+      <c r="MZ3" s="55"/>
+      <c r="NA3" s="55"/>
+      <c r="NB3" s="55"/>
+      <c r="NC3" s="55"/>
+      <c r="ND3" s="55"/>
+      <c r="NE3" s="55"/>
+      <c r="NF3" s="55"/>
+      <c r="NG3" s="55"/>
+      <c r="NH3" s="55"/>
+      <c r="NI3" s="55"/>
+      <c r="NJ3" s="55"/>
+      <c r="NK3" s="55"/>
+      <c r="NL3" s="55"/>
+      <c r="NM3" s="55"/>
+      <c r="NN3" s="55"/>
+      <c r="NO3" s="55"/>
+      <c r="NP3" s="55"/>
+      <c r="NQ3" s="55"/>
+      <c r="NR3" s="55"/>
+      <c r="NS3" s="55"/>
+      <c r="NT3" s="55"/>
+      <c r="NU3" s="55"/>
+      <c r="NV3" s="55"/>
+      <c r="NW3" s="55"/>
+      <c r="NX3" s="55"/>
+      <c r="NY3" s="55"/>
+      <c r="NZ3" s="55"/>
+      <c r="OA3" s="55"/>
+      <c r="OB3" s="55"/>
+      <c r="OC3" s="55"/>
+      <c r="OD3" s="55"/>
+      <c r="OE3" s="55"/>
+      <c r="OF3" s="55"/>
+      <c r="OG3" s="55"/>
+      <c r="OH3" s="55"/>
+      <c r="OI3" s="55"/>
+      <c r="OJ3" s="55"/>
+      <c r="OK3" s="55"/>
+      <c r="OL3" s="55"/>
+      <c r="OM3" s="55"/>
+      <c r="ON3" s="55"/>
+      <c r="OO3" s="55"/>
+      <c r="OP3" s="55"/>
+      <c r="OQ3" s="55"/>
+      <c r="OR3" s="55"/>
+      <c r="OS3" s="55"/>
+      <c r="OT3" s="55"/>
+      <c r="OU3" s="55"/>
+      <c r="OV3" s="55"/>
+      <c r="OW3" s="55"/>
+      <c r="OX3" s="55"/>
+      <c r="OY3" s="55"/>
+      <c r="OZ3" s="55"/>
+      <c r="PA3" s="55"/>
+      <c r="PB3" s="55"/>
+      <c r="PC3" s="55"/>
+      <c r="PD3" s="55"/>
+      <c r="PE3" s="55"/>
+      <c r="PF3" s="55"/>
+      <c r="PG3" s="55"/>
+      <c r="PH3" s="55"/>
+      <c r="PI3" s="55"/>
+      <c r="PJ3" s="55"/>
+      <c r="PK3" s="55"/>
+      <c r="PL3" s="55"/>
+      <c r="PM3" s="55"/>
+      <c r="PN3" s="55"/>
+      <c r="PO3" s="55"/>
+      <c r="PP3" s="55"/>
+      <c r="PQ3" s="55"/>
+      <c r="PR3" s="55"/>
+      <c r="PS3" s="55"/>
+      <c r="PT3" s="55"/>
+      <c r="PU3" s="55"/>
+      <c r="PV3" s="55"/>
+      <c r="PW3" s="55"/>
+      <c r="PX3" s="55"/>
+      <c r="PY3" s="55"/>
+      <c r="PZ3" s="55"/>
+      <c r="QA3" s="55"/>
+      <c r="QB3" s="55"/>
+      <c r="QC3" s="55"/>
+      <c r="QD3" s="55"/>
+      <c r="QE3" s="55"/>
+      <c r="QF3" s="55"/>
+      <c r="QG3" s="55"/>
+      <c r="QH3" s="55"/>
+      <c r="QI3" s="55"/>
+      <c r="QJ3" s="55"/>
+      <c r="QK3" s="55"/>
+      <c r="QL3" s="55"/>
+      <c r="QM3" s="55"/>
+      <c r="QN3" s="55"/>
+      <c r="QO3" s="55"/>
+      <c r="QP3" s="55"/>
+      <c r="QQ3" s="55"/>
+      <c r="QR3" s="55"/>
+      <c r="QS3" s="55"/>
+      <c r="QT3" s="55"/>
+      <c r="QU3" s="55"/>
+      <c r="QV3" s="55"/>
+      <c r="QW3" s="55"/>
+      <c r="QX3" s="55"/>
+      <c r="QY3" s="55"/>
+      <c r="QZ3" s="55"/>
+      <c r="RA3" s="55"/>
+      <c r="RB3" s="55"/>
+      <c r="RC3" s="55"/>
+      <c r="RD3" s="55"/>
+      <c r="RE3" s="55"/>
+      <c r="RF3" s="55"/>
+      <c r="RG3" s="55"/>
+      <c r="RH3" s="55"/>
+      <c r="RI3" s="55"/>
+      <c r="RJ3" s="55"/>
+      <c r="RK3" s="55"/>
+      <c r="RL3" s="55"/>
+      <c r="RM3" s="55"/>
+      <c r="RN3" s="55"/>
+      <c r="RO3" s="55"/>
+      <c r="RP3" s="55"/>
+      <c r="RQ3" s="55"/>
+      <c r="RR3" s="55"/>
+      <c r="RS3" s="55"/>
+      <c r="RT3" s="55"/>
+      <c r="RU3" s="55"/>
+      <c r="RV3" s="55"/>
+      <c r="RW3" s="55"/>
+      <c r="RX3" s="55"/>
+      <c r="RY3" s="55"/>
+      <c r="RZ3" s="55"/>
+      <c r="SA3" s="55"/>
+      <c r="SB3" s="55"/>
     </row>
     <row r="4" spans="1:496" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -2808,117 +2815,117 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="88">
+      <c r="J4" s="76">
         <v>1</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="76">
         <v>2</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="76">
         <v>3</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="76">
         <v>4</v>
       </c>
-      <c r="N4" s="88">
+      <c r="N4" s="76">
         <v>5</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="76">
         <v>6</v>
       </c>
-      <c r="P4" s="88">
+      <c r="P4" s="76">
         <v>7</v>
       </c>
-      <c r="Q4" s="88">
+      <c r="Q4" s="76">
         <v>8</v>
       </c>
-      <c r="R4" s="88">
+      <c r="R4" s="76">
         <v>9</v>
       </c>
-      <c r="S4" s="88">
+      <c r="S4" s="76">
         <v>10</v>
       </c>
-      <c r="T4" s="88">
+      <c r="T4" s="76">
         <v>11</v>
       </c>
-      <c r="U4" s="88">
+      <c r="U4" s="76">
         <v>12</v>
       </c>
-      <c r="V4" s="88">
+      <c r="V4" s="76">
         <v>13</v>
       </c>
-      <c r="W4" s="88">
+      <c r="W4" s="76">
         <v>14</v>
       </c>
-      <c r="X4" s="88">
+      <c r="X4" s="76">
         <v>15</v>
       </c>
-      <c r="Y4" s="88">
+      <c r="Y4" s="76">
         <v>16</v>
       </c>
-      <c r="Z4" s="88">
+      <c r="Z4" s="76">
         <v>17</v>
       </c>
-      <c r="AA4" s="88">
+      <c r="AA4" s="76">
         <v>18</v>
       </c>
-      <c r="AB4" s="88">
+      <c r="AB4" s="76">
         <v>19</v>
       </c>
-      <c r="AC4" s="88">
+      <c r="AC4" s="76">
         <v>20</v>
       </c>
-      <c r="AD4" s="88">
+      <c r="AD4" s="76">
         <v>21</v>
       </c>
-      <c r="AE4" s="88">
+      <c r="AE4" s="76">
         <v>22</v>
       </c>
-      <c r="AF4" s="88">
+      <c r="AF4" s="76">
         <v>23</v>
       </c>
-      <c r="AG4" s="88">
+      <c r="AG4" s="76">
         <v>24</v>
       </c>
-      <c r="AH4" s="88">
+      <c r="AH4" s="76">
         <v>25</v>
       </c>
-      <c r="AI4" s="88">
+      <c r="AI4" s="76">
         <v>26</v>
       </c>
-      <c r="AJ4" s="88">
+      <c r="AJ4" s="76">
         <v>27</v>
       </c>
-      <c r="AK4" s="88">
+      <c r="AK4" s="76">
         <v>28</v>
       </c>
-      <c r="AL4" s="88">
+      <c r="AL4" s="76">
         <v>29</v>
       </c>
-      <c r="AM4" s="88">
+      <c r="AM4" s="76">
         <v>30</v>
       </c>
-      <c r="AN4" s="88">
+      <c r="AN4" s="76">
         <v>31</v>
       </c>
-      <c r="AO4" s="88">
+      <c r="AO4" s="76">
         <v>32</v>
       </c>
-      <c r="AP4" s="88">
+      <c r="AP4" s="76">
         <v>33</v>
       </c>
-      <c r="AQ4" s="88">
+      <c r="AQ4" s="76">
         <v>34</v>
       </c>
-      <c r="AR4" s="88">
+      <c r="AR4" s="76">
         <v>35</v>
       </c>
-      <c r="AS4" s="88">
+      <c r="AS4" s="76">
         <v>36</v>
       </c>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
       <c r="GT4" s="4"/>
       <c r="GU4" s="4"/>
       <c r="GV4" s="4"/>
@@ -3216,7 +3223,7 @@
       <c r="SB4" s="4"/>
     </row>
     <row r="5" spans="1:496" s="12" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="78" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -3576,7 +3583,7 @@
       <c r="SB5" s="13"/>
     </row>
     <row r="6" spans="1:496" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="34"/>
       <c r="C6" s="40"/>
       <c r="D6" s="23" t="s">
@@ -3930,7 +3937,7 @@
       <c r="SB6" s="13"/>
     </row>
     <row r="7" spans="1:496" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="34"/>
       <c r="C7" s="40"/>
       <c r="D7" s="29" t="s">
@@ -4284,7 +4291,7 @@
       <c r="SB7" s="13"/>
     </row>
     <row r="8" spans="1:496" s="12" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="34"/>
       <c r="C8" s="40"/>
       <c r="D8" s="27" t="s">
@@ -4638,7 +4645,7 @@
       <c r="SB8" s="13"/>
     </row>
     <row r="9" spans="1:496" s="12" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="35"/>
       <c r="C9" s="41"/>
       <c r="D9" s="23" t="s">
@@ -4992,7 +4999,7 @@
       <c r="SB9" s="13"/>
     </row>
     <row r="10" spans="1:496" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="78" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -5352,7 +5359,7 @@
       <c r="SB10" s="13"/>
     </row>
     <row r="11" spans="1:496" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="34"/>
       <c r="C11" s="40"/>
       <c r="D11" s="23" t="s">
@@ -5706,7 +5713,7 @@
       <c r="SB11" s="13"/>
     </row>
     <row r="12" spans="1:496" s="12" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="34"/>
       <c r="C12" s="40"/>
       <c r="D12" s="23" t="s">
@@ -6060,7 +6067,7 @@
       <c r="SB12" s="13"/>
     </row>
     <row r="13" spans="1:496" s="12" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="34"/>
       <c r="C13" s="40"/>
       <c r="D13" s="29" t="s">
@@ -6414,7 +6421,7 @@
       <c r="SB13" s="13"/>
     </row>
     <row r="14" spans="1:496" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="35"/>
       <c r="C14" s="41"/>
       <c r="D14" s="27" t="s">
@@ -6472,8 +6479,8 @@
       <c r="AR14" s="32"/>
       <c r="AS14" s="32"/>
     </row>
-    <row r="15" spans="1:496" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:496" s="12" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="78" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -6538,7 +6545,7 @@
       <c r="AS15" s="32"/>
     </row>
     <row r="16" spans="1:496" s="12" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="35"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
@@ -6597,7 +6604,7 @@
       <c r="AS16" s="32"/>
     </row>
     <row r="17" spans="1:45" s="12" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -6662,7 +6669,7 @@
       <c r="AS17" s="32"/>
     </row>
     <row r="18" spans="1:45" s="12" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="34"/>
       <c r="C18" s="37"/>
       <c r="D18" s="27" t="s">
@@ -6721,7 +6728,7 @@
       <c r="AS18" s="32"/>
     </row>
     <row r="19" spans="1:45" s="12" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="35"/>
       <c r="C19" s="38"/>
       <c r="D19" s="27" t="s">
@@ -6780,7 +6787,7 @@
       <c r="AS19" s="32"/>
     </row>
     <row r="20" spans="1:45" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -6845,7 +6852,7 @@
       <c r="AS20" s="32"/>
     </row>
     <row r="21" spans="1:45" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="34"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
@@ -6904,7 +6911,7 @@
       <c r="AS21" s="32"/>
     </row>
     <row r="22" spans="1:45" s="12" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="34"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
@@ -6963,7 +6970,7 @@
       <c r="AS22" s="32"/>
     </row>
     <row r="23" spans="1:45" s="12" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="35"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
@@ -7022,7 +7029,7 @@
       <c r="AS23" s="32"/>
     </row>
     <row r="24" spans="1:45" s="12" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="33" t="s">
@@ -7087,7 +7094,7 @@
       <c r="AS24" s="32"/>
     </row>
     <row r="25" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="34"/>
       <c r="C25" s="40"/>
       <c r="D25" s="27" t="s">
@@ -7146,7 +7153,7 @@
       <c r="AS25" s="32"/>
     </row>
     <row r="26" spans="1:45" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="34"/>
       <c r="C26" s="40"/>
       <c r="D26" s="27" t="s">
@@ -7205,7 +7212,7 @@
       <c r="AS26" s="32"/>
     </row>
     <row r="27" spans="1:45" s="12" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="78" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -7270,7 +7277,7 @@
       <c r="AS27" s="32"/>
     </row>
     <row r="28" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="34"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="s">
@@ -7329,7 +7336,7 @@
       <c r="AS28" s="32"/>
     </row>
     <row r="29" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="35"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
@@ -7388,7 +7395,7 @@
       <c r="AS29" s="32"/>
     </row>
     <row r="30" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="81" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -7453,7 +7460,7 @@
       <c r="AS30" s="32"/>
     </row>
     <row r="31" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="33" t="s">
         <v>79</v>
       </c>
@@ -7514,7 +7521,7 @@
       <c r="AS31" s="32"/>
     </row>
     <row r="32" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="34"/>
       <c r="C32" s="40"/>
       <c r="D32" s="23" t="s">
@@ -7573,7 +7580,7 @@
       <c r="AS32" s="32"/>
     </row>
     <row r="33" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="34"/>
       <c r="C33" s="40"/>
       <c r="D33" s="23" t="s">
@@ -7631,8 +7638,8 @@
       <c r="AR33" s="32"/>
       <c r="AS33" s="32"/>
     </row>
-    <row r="34" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:45" s="12" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
       <c r="B34" s="34"/>
       <c r="C34" s="40"/>
       <c r="D34" s="29" t="s">
@@ -7691,7 +7698,7 @@
       <c r="AS34" s="32"/>
     </row>
     <row r="35" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="34"/>
       <c r="C35" s="40"/>
       <c r="D35" s="23" t="s">
@@ -7750,7 +7757,7 @@
       <c r="AS35" s="32"/>
     </row>
     <row r="36" spans="1:45" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="35"/>
       <c r="C36" s="41"/>
       <c r="D36" s="23" t="s">
@@ -7809,62 +7816,62 @@
       <c r="AS36" s="32"/>
     </row>
     <row r="37" spans="1:45" s="15" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="56"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="52"/>
+      <c r="AN37" s="52"/>
+      <c r="AO37" s="52"/>
+      <c r="AP37" s="52"/>
+      <c r="AQ37" s="52"/>
+      <c r="AR37" s="52"/>
+      <c r="AS37" s="53"/>
     </row>
     <row r="38" spans="1:45" s="14" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="28" t="s">
@@ -7873,7 +7880,7 @@
       <c r="C38" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="24">
@@ -7891,45 +7898,45 @@
       <c r="I38" s="25">
         <v>0.5</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="47"/>
-      <c r="AL38" s="47"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="47"/>
-      <c r="AS38" s="47"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
     </row>
     <row r="39" spans="1:45" s="14" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="84" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -7938,7 +7945,7 @@
       <c r="C39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="24">
@@ -7956,45 +7963,45 @@
       <c r="I39" s="25">
         <v>0</v>
       </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
     </row>
     <row r="40" spans="1:45" s="14" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="84" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -8021,45 +8028,45 @@
       <c r="I40" s="25">
         <v>0</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
     </row>
     <row r="41" spans="1:45" s="14" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -8086,45 +8093,45 @@
       <c r="I41" s="25">
         <v>0</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="47"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
     </row>
     <row r="42" spans="1:45" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -8133,7 +8140,7 @@
       <c r="C42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="24">
@@ -8151,52 +8158,52 @@
       <c r="I42" s="25">
         <v>0</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="47"/>
-      <c r="AL42" s="47"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
     </row>
     <row r="43" spans="1:45" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="85" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="24">
@@ -8214,52 +8221,52 @@
       <c r="I43" s="25">
         <v>0</v>
       </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="47"/>
-      <c r="AI43" s="47"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="47"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="47"/>
-      <c r="AS43" s="47"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
     </row>
-    <row r="44" spans="1:45" s="14" customFormat="1" ht="346" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:45" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="85" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="35"/>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="24">
@@ -8277,42 +8284,42 @@
       <c r="I44" s="25">
         <v>0</v>
       </c>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="47"/>
-      <c r="AS44" s="47"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="26">
